--- a/Results - Analysis.xlsx
+++ b/Results - Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heriotwatt-my.sharepoint.com/personal/jy84_hw_ac_uk/Documents/Documents/Heriot Watt/Year 2/MSc Project/Reject-Inference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{68B15452-E4FB-4DF5-93BE-27E1D18A3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:40009_{68B15452-E4FB-4DF5-93BE-27E1D18A3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AABAAC90-CFD5-4B2F-9A91-7A97BBB5CCDE}"/>
   <bookViews>
-    <workbookView xWindow="-18255" yWindow="-5670" windowWidth="17280" windowHeight="9075"/>
+    <workbookView minimized="1" xWindow="-22380" yWindow="-5415" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +469,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -620,9 +638,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,11 +1005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,7 +1022,7 @@
     <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1039,7 +1065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1062,7 +1088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1084,8 +1110,12 @@
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J4" s="2">
+        <f xml:space="preserve"> 58028 / (58028 +49276)</f>
+        <v>0.54078133154402441</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1108,150 +1138,155 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0.58258665731707504</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0.624391983090126</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.54078133154402397</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.62240202979097603</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.744645631191585</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.50015842839036695</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.57905794941748301</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.69243894364224401</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.46567695519272301</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>0.50635272014154997</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>6.6748160032597301E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0.94595728025050296</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="J9" s="4">
+        <f xml:space="preserve"> (101505 + 36646) / (146571)</f>
+        <v>0.94255343826541405</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.49888430850399501</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.91096849772073196</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>8.6800119287258601E-2</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.50501707987531697</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.104438841775536</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.90559531797509796</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>